--- a/Trabalho/VLSMafins.xlsx
+++ b/Trabalho/VLSMafins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rribe\Desktop\UNI - ISEC\3º ANO\1º Semestre\Tecnologias de Ligação\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFFC6EF-CEA7-4541-AFC3-E6FE2E7CA99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2626649D-1258-4F44-BE33-ADE163C4517E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7454AE78-8206-479D-9604-2798A1206FB3}"/>
+    <workbookView xWindow="-20610" yWindow="4575" windowWidth="20730" windowHeight="11310" xr2:uid="{7454AE78-8206-479D-9604-2798A1206FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Qualidadde</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
@@ -976,6 +973,9 @@
   </si>
   <si>
     <t>TRANSPORTE</t>
+  </si>
+  <si>
+    <t>Qualidade</t>
   </si>
 </sst>
 </file>
@@ -1856,36 +1856,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1897,9 +1867,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2061,6 +2028,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2385,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FB55FF-40E7-43E7-8567-00EF3406AF94}">
   <dimension ref="E3:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,133 +2414,133 @@
     <row r="3" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="5:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="168" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="169"/>
+      <c r="J4" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="N4" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="169"/>
+      <c r="P4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="H4" s="115" t="s">
+      <c r="Q4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="170" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="171"/>
+      <c r="V4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E5" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="110">
         <v>14</v>
       </c>
-      <c r="I4" s="116"/>
-      <c r="J4" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="N4" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="116"/>
-      <c r="P4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="13" t="s">
+      <c r="G5" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="29"/>
+      <c r="N5" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="114">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="114">
+        <v>14</v>
+      </c>
+      <c r="R5" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="116">
+        <v>4</v>
+      </c>
+      <c r="W5" s="117">
+        <v>2</v>
+      </c>
+      <c r="X5" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="7" t="s">
+    </row>
+    <row r="6" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E6" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="110">
         <v>14</v>
       </c>
-      <c r="T4" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="118"/>
-      <c r="V4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E5" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="120">
-        <v>14</v>
-      </c>
-      <c r="G5" s="120" t="s">
+      <c r="G6" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="29"/>
-      <c r="N5" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="124" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="125">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="125">
-        <v>14</v>
-      </c>
-      <c r="R5" s="125" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5" s="127">
-        <v>4</v>
-      </c>
-      <c r="W5" s="128">
-        <v>2</v>
-      </c>
-      <c r="X5" s="129" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E6" s="119" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="120">
-        <v>14</v>
-      </c>
-      <c r="G6" s="120" t="s">
+      <c r="J6" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="120" t="s">
+      <c r="K6" s="110" t="s">
         <v>33</v>
-      </c>
-      <c r="K6" s="120" t="s">
-        <v>34</v>
       </c>
       <c r="L6" s="29"/>
       <c r="N6" s="24" t="s">
         <v>0</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P6" s="14">
         <v>6</v>
@@ -2549,13 +2549,13 @@
         <v>6</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="U6" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V6" s="14">
         <v>3</v>
@@ -2564,37 +2564,37 @@
         <v>2</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E7" s="119" t="s">
+      <c r="E7" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="110">
+        <v>14</v>
+      </c>
+      <c r="G7" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="120">
-        <v>14</v>
-      </c>
-      <c r="G7" s="120" t="s">
+      <c r="H7" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="120" t="s">
+      <c r="K7" s="110" t="s">
         <v>37</v>
-      </c>
-      <c r="K7" s="120" t="s">
-        <v>38</v>
       </c>
       <c r="L7" s="29"/>
       <c r="N7" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O7" s="25" t="s">
         <v>3</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>4</v>
       </c>
       <c r="P7" s="15">
         <v>7</v>
@@ -2603,13 +2603,13 @@
         <v>6</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T7" s="20" t="s">
-        <v>3</v>
+        <v>313</v>
       </c>
       <c r="U7" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V7" s="15">
         <v>3</v>
@@ -2618,37 +2618,37 @@
         <v>2</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E8" s="119" t="s">
+      <c r="E8" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="110">
+        <v>14</v>
+      </c>
+      <c r="G8" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="120">
-        <v>14</v>
-      </c>
-      <c r="G8" s="120" t="s">
+      <c r="H8" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="120" t="s">
+      <c r="K8" s="110" t="s">
         <v>41</v>
-      </c>
-      <c r="K8" s="120" t="s">
-        <v>42</v>
       </c>
       <c r="L8" s="29"/>
       <c r="N8" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P8" s="16">
         <v>7</v>
@@ -2657,13 +2657,13 @@
         <v>6</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V8" s="16">
         <v>5</v>
@@ -2672,37 +2672,37 @@
         <v>2</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="110">
+        <v>14</v>
+      </c>
+      <c r="G9" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="120">
-        <v>14</v>
-      </c>
-      <c r="G9" s="120" t="s">
+      <c r="H9" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="120" t="s">
+      <c r="K9" s="110" t="s">
         <v>45</v>
-      </c>
-      <c r="K9" s="120" t="s">
-        <v>46</v>
       </c>
       <c r="L9" s="29"/>
       <c r="N9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="27" t="s">
         <v>7</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>8</v>
       </c>
       <c r="P9" s="17">
         <v>7</v>
@@ -2711,13 +2711,13 @@
         <v>6</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U9" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V9" s="17">
         <v>4</v>
@@ -2726,37 +2726,37 @@
         <v>2</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="119" t="s">
+      <c r="E10" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="110">
+        <v>14</v>
+      </c>
+      <c r="G10" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="120">
-        <v>14</v>
-      </c>
-      <c r="G10" s="120" t="s">
+      <c r="H10" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="120" t="s">
+      <c r="K10" s="110" t="s">
         <v>49</v>
-      </c>
-      <c r="K10" s="120" t="s">
-        <v>50</v>
       </c>
       <c r="L10" s="29"/>
       <c r="N10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="28" t="s">
         <v>10</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>11</v>
       </c>
       <c r="P10" s="18">
         <v>5</v>
@@ -2765,13 +2765,13 @@
         <v>2</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U10" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V10" s="18">
         <v>11</v>
@@ -2780,1640 +2780,1635 @@
         <v>2</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="110">
+        <v>14</v>
+      </c>
+      <c r="G11" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="120">
-        <v>14</v>
-      </c>
-      <c r="G11" s="120" t="s">
+      <c r="H11" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="120" t="s">
+      <c r="K11" s="110" t="s">
         <v>53</v>
-      </c>
-      <c r="K11" s="120" t="s">
-        <v>54</v>
       </c>
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E12" s="75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="69">
         <v>6</v>
       </c>
       <c r="G12" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="71" t="s">
+      <c r="J12" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="K12" s="69" t="s">
         <v>58</v>
-      </c>
-      <c r="K12" s="69" t="s">
-        <v>59</v>
       </c>
       <c r="L12" s="29"/>
     </row>
     <row r="13" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E13" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="30">
         <v>6</v>
       </c>
       <c r="G13" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="30" t="s">
+      <c r="K13" s="30" t="s">
         <v>62</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>63</v>
       </c>
       <c r="L13" s="29"/>
     </row>
     <row r="14" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E14" s="76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="30">
         <v>6</v>
       </c>
       <c r="G14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="30" t="s">
+      <c r="K14" s="30" t="s">
         <v>66</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>67</v>
       </c>
       <c r="L14" s="29"/>
     </row>
     <row r="15" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E15" s="76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="30">
         <v>6</v>
       </c>
       <c r="G15" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="30" t="s">
+      <c r="K15" s="30" t="s">
         <v>70</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>71</v>
       </c>
       <c r="L15" s="29"/>
     </row>
     <row r="16" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E16" s="76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="30">
         <v>6</v>
       </c>
       <c r="G16" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="30" t="s">
+      <c r="K16" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="L16" s="29"/>
     </row>
     <row r="17" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="72">
         <v>6</v>
       </c>
       <c r="G17" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="72" t="s">
+      <c r="K17" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="72" t="s">
-        <v>79</v>
-      </c>
       <c r="L17" s="29"/>
-      <c r="N17" s="123" t="s">
-        <v>309</v>
-      </c>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
+      <c r="N17" s="172" t="s">
+        <v>308</v>
+      </c>
+      <c r="O17" s="172"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="172"/>
+      <c r="R17" s="172"/>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E18" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="63">
         <v>6</v>
       </c>
       <c r="G18" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="63" t="s">
+      <c r="K18" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="63" t="s">
-        <v>83</v>
-      </c>
       <c r="L18" s="29"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
+      <c r="N18" s="178"/>
+      <c r="O18" s="178"/>
+      <c r="P18" s="178"/>
+      <c r="Q18" s="178"/>
+      <c r="R18" s="178"/>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E19" s="79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="33">
         <v>6</v>
       </c>
       <c r="G19" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="33" t="s">
+      <c r="K19" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="33" t="s">
-        <v>87</v>
-      </c>
       <c r="L19" s="29"/>
-      <c r="N19" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
+      <c r="N19" s="173" t="s">
+        <v>309</v>
+      </c>
+      <c r="O19" s="173"/>
+      <c r="P19" s="173"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="173"/>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E20" s="79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="33">
         <v>6</v>
       </c>
       <c r="G20" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="33" t="s">
+      <c r="K20" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="33" t="s">
-        <v>91</v>
-      </c>
       <c r="L20" s="29"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
+      <c r="N20" s="178"/>
+      <c r="O20" s="178"/>
+      <c r="P20" s="178"/>
+      <c r="Q20" s="178"/>
+      <c r="R20" s="178"/>
     </row>
     <row r="21" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E21" s="79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="33">
         <v>6</v>
       </c>
       <c r="G21" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="33" t="s">
+      <c r="K21" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="K21" s="33" t="s">
-        <v>95</v>
-      </c>
       <c r="L21" s="29"/>
-      <c r="N21" s="112" t="s">
-        <v>311</v>
-      </c>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
+      <c r="N21" s="174" t="s">
+        <v>310</v>
+      </c>
+      <c r="O21" s="174"/>
+      <c r="P21" s="174"/>
+      <c r="Q21" s="174"/>
+      <c r="R21" s="174"/>
     </row>
     <row r="22" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E22" s="79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="33">
         <v>6</v>
       </c>
       <c r="G22" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="33" t="s">
+      <c r="K22" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="33" t="s">
-        <v>99</v>
-      </c>
       <c r="L22" s="29"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
+      <c r="N22" s="178"/>
+      <c r="O22" s="178"/>
+      <c r="P22" s="178"/>
+      <c r="Q22" s="178"/>
+      <c r="R22" s="178"/>
     </row>
     <row r="23" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E23" s="79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="33">
         <v>6</v>
       </c>
       <c r="G23" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="33" t="s">
+      <c r="K23" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="K23" s="33" t="s">
-        <v>103</v>
-      </c>
       <c r="L23" s="29"/>
-      <c r="N23" s="113" t="s">
-        <v>312</v>
-      </c>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
+      <c r="N23" s="175" t="s">
+        <v>311</v>
+      </c>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
     </row>
     <row r="24" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="66">
         <v>6</v>
       </c>
       <c r="G24" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" s="66" t="s">
+      <c r="K24" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="66" t="s">
-        <v>107</v>
-      </c>
       <c r="L24" s="29"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="110"/>
+      <c r="N24" s="178"/>
+      <c r="O24" s="178"/>
+      <c r="P24" s="178"/>
+      <c r="Q24" s="178"/>
+      <c r="R24" s="178"/>
     </row>
     <row r="25" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E25" s="81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="57">
         <v>6</v>
       </c>
       <c r="G25" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="57" t="s">
+      <c r="K25" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="57" t="s">
-        <v>111</v>
-      </c>
       <c r="L25" s="29"/>
-      <c r="N25" s="114" t="s">
-        <v>313</v>
-      </c>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="114"/>
-      <c r="R25" s="114"/>
+      <c r="N25" s="176" t="s">
+        <v>312</v>
+      </c>
+      <c r="O25" s="176"/>
+      <c r="P25" s="176"/>
+      <c r="Q25" s="176"/>
+      <c r="R25" s="176"/>
     </row>
     <row r="26" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E26" s="82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26" s="36">
         <v>6</v>
       </c>
       <c r="G26" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="36" t="s">
+      <c r="K26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="K26" s="36" t="s">
-        <v>115</v>
-      </c>
       <c r="L26" s="29"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="178"/>
+      <c r="P26" s="178"/>
+      <c r="Q26" s="178"/>
+      <c r="R26" s="178"/>
     </row>
     <row r="27" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E27" s="82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="36">
         <v>6</v>
       </c>
       <c r="G27" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="36" t="s">
+      <c r="K27" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="K27" s="36" t="s">
-        <v>119</v>
-      </c>
       <c r="L27" s="29"/>
-      <c r="N27" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
+      <c r="N27" s="177" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27" s="177"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="177"/>
     </row>
     <row r="28" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E28" s="82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="36">
         <v>6</v>
       </c>
       <c r="G28" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" s="36" t="s">
+      <c r="K28" s="36" t="s">
         <v>122</v>
-      </c>
-      <c r="K28" s="36" t="s">
-        <v>123</v>
       </c>
       <c r="L28" s="29"/>
     </row>
     <row r="29" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E29" s="82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" s="36">
         <v>6</v>
       </c>
       <c r="G29" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="36" t="s">
+      <c r="K29" s="36" t="s">
         <v>126</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>127</v>
       </c>
       <c r="L29" s="29"/>
     </row>
     <row r="30" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E30" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30" s="36">
         <v>6</v>
       </c>
       <c r="G30" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="H30" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" s="36" t="s">
+      <c r="K30" s="36" t="s">
         <v>130</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>131</v>
       </c>
       <c r="L30" s="29"/>
     </row>
     <row r="31" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F31" s="60">
         <v>6</v>
       </c>
       <c r="G31" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" s="60" t="s">
+      <c r="K31" s="60" t="s">
         <v>134</v>
-      </c>
-      <c r="K31" s="60" t="s">
-        <v>135</v>
       </c>
       <c r="L31" s="29"/>
     </row>
     <row r="32" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E32" s="84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F32" s="51">
         <v>6</v>
       </c>
       <c r="G32" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="H32" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" s="51" t="s">
+      <c r="K32" s="51" t="s">
         <v>138</v>
-      </c>
-      <c r="K32" s="51" t="s">
-        <v>139</v>
       </c>
       <c r="L32" s="29"/>
     </row>
     <row r="33" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E33" s="85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33" s="39">
         <v>6</v>
       </c>
       <c r="G33" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" s="39" t="s">
+      <c r="K33" s="39" t="s">
         <v>142</v>
-      </c>
-      <c r="K33" s="39" t="s">
-        <v>143</v>
       </c>
       <c r="L33" s="29"/>
     </row>
     <row r="34" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E34" s="85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F34" s="39">
         <v>6</v>
       </c>
       <c r="G34" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" s="39" t="s">
+      <c r="K34" s="39" t="s">
         <v>146</v>
-      </c>
-      <c r="K34" s="39" t="s">
-        <v>147</v>
       </c>
       <c r="L34" s="29"/>
     </row>
     <row r="35" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E35" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F35" s="39">
         <v>6</v>
       </c>
       <c r="G35" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="39" t="s">
+      <c r="K35" s="39" t="s">
         <v>150</v>
-      </c>
-      <c r="K35" s="39" t="s">
-        <v>151</v>
       </c>
       <c r="L35" s="29"/>
     </row>
     <row r="36" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E36" s="85" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F36" s="39">
         <v>6</v>
       </c>
       <c r="G36" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="H36" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" s="39" t="s">
+      <c r="K36" s="39" t="s">
         <v>154</v>
-      </c>
-      <c r="K36" s="39" t="s">
-        <v>155</v>
       </c>
       <c r="L36" s="29"/>
     </row>
     <row r="37" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E37" s="85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F37" s="39">
         <v>6</v>
       </c>
       <c r="G37" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="H37" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" s="39" t="s">
+      <c r="K37" s="39" t="s">
         <v>158</v>
-      </c>
-      <c r="K37" s="39" t="s">
-        <v>159</v>
       </c>
       <c r="L37" s="29"/>
     </row>
     <row r="38" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38" s="86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F38" s="54">
         <v>6</v>
       </c>
       <c r="G38" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="H38" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="J38" s="54" t="s">
+      <c r="K38" s="54" t="s">
         <v>162</v>
-      </c>
-      <c r="K38" s="54" t="s">
-        <v>163</v>
       </c>
       <c r="L38" s="29"/>
     </row>
     <row r="39" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E39" s="87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F39" s="45">
         <v>2</v>
       </c>
       <c r="G39" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="H39" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="47" t="s">
+      <c r="J39" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="J39" s="45" t="s">
+      <c r="K39" s="45" t="s">
         <v>167</v>
-      </c>
-      <c r="K39" s="45" t="s">
-        <v>168</v>
       </c>
       <c r="L39" s="29"/>
     </row>
     <row r="40" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E40" s="88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F40" s="42">
         <v>2</v>
       </c>
       <c r="G40" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="J40" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="H40" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="J40" s="42" t="s">
+      <c r="K40" s="42" t="s">
         <v>171</v>
-      </c>
-      <c r="K40" s="42" t="s">
-        <v>172</v>
       </c>
       <c r="L40" s="29"/>
     </row>
     <row r="41" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E41" s="88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F41" s="42">
         <v>2</v>
       </c>
       <c r="G41" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="J41" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="H41" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="J41" s="42" t="s">
+      <c r="K41" s="42" t="s">
         <v>175</v>
-      </c>
-      <c r="K41" s="42" t="s">
-        <v>176</v>
       </c>
       <c r="L41" s="29"/>
     </row>
     <row r="42" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E42" s="88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F42" s="42">
         <v>2</v>
       </c>
       <c r="G42" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="J42" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="H42" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="J42" s="42" t="s">
+      <c r="K42" s="42" t="s">
         <v>179</v>
-      </c>
-      <c r="K42" s="42" t="s">
-        <v>180</v>
       </c>
       <c r="L42" s="29"/>
     </row>
     <row r="43" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E43" s="89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F43" s="48">
         <v>2</v>
       </c>
       <c r="G43" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="J43" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="H43" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="J43" s="48" t="s">
+      <c r="K43" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="K43" s="48" t="s">
-        <v>184</v>
-      </c>
       <c r="L43" s="29"/>
     </row>
     <row r="44" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E44" s="124" t="s">
-        <v>280</v>
-      </c>
-      <c r="F44" s="130">
+      <c r="E44" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="F44" s="119">
         <v>2</v>
       </c>
-      <c r="G44" s="130" t="s">
+      <c r="G44" s="119" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="J44" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="H44" s="135" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="136" t="s">
-        <v>166</v>
-      </c>
-      <c r="J44" s="130" t="s">
+      <c r="K44" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="K44" s="130" t="s">
+      <c r="L44" s="29"/>
+    </row>
+    <row r="45" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E45" s="120" t="s">
+        <v>284</v>
+      </c>
+      <c r="F45" s="121">
+        <v>2</v>
+      </c>
+      <c r="G45" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="L44" s="29"/>
-    </row>
-    <row r="45" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E45" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="F45" s="132">
+      <c r="H45" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="J45" s="121" t="s">
+        <v>189</v>
+      </c>
+      <c r="K45" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="L45" s="29"/>
+      <c r="O45" s="164"/>
+      <c r="P45" s="164"/>
+      <c r="Q45" s="164"/>
+      <c r="R45" s="164"/>
+      <c r="S45" s="164"/>
+      <c r="T45" s="164"/>
+      <c r="U45" s="164"/>
+      <c r="V45" s="164"/>
+      <c r="W45" s="165"/>
+    </row>
+    <row r="46" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E46" s="120" t="s">
+        <v>290</v>
+      </c>
+      <c r="F46" s="121">
         <v>2</v>
       </c>
-      <c r="G45" s="132" t="s">
-        <v>189</v>
-      </c>
-      <c r="H45" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="134" t="s">
-        <v>166</v>
-      </c>
-      <c r="J45" s="132" t="s">
-        <v>190</v>
-      </c>
-      <c r="K45" s="132" t="s">
+      <c r="G46" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="29"/>
-      <c r="O45" s="175"/>
-      <c r="P45" s="175"/>
-      <c r="Q45" s="175"/>
-      <c r="R45" s="175"/>
-      <c r="S45" s="175"/>
-      <c r="T45" s="175"/>
-      <c r="U45" s="175"/>
-      <c r="V45" s="175"/>
-      <c r="W45" s="176"/>
-    </row>
-    <row r="46" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E46" s="131" t="s">
-        <v>291</v>
-      </c>
-      <c r="F46" s="132">
+      <c r="H46" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="J46" s="121" t="s">
+        <v>192</v>
+      </c>
+      <c r="K46" s="121" t="s">
+        <v>193</v>
+      </c>
+      <c r="L46" s="29"/>
+      <c r="O46" s="164"/>
+      <c r="P46" s="166"/>
+      <c r="Q46" s="167"/>
+      <c r="R46" s="167"/>
+      <c r="S46" s="167"/>
+      <c r="T46" s="167"/>
+      <c r="U46" s="167"/>
+      <c r="V46" s="167"/>
+      <c r="W46" s="165"/>
+    </row>
+    <row r="47" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="126" t="s">
+        <v>298</v>
+      </c>
+      <c r="F47" s="127">
         <v>2</v>
       </c>
-      <c r="G46" s="132" t="s">
-        <v>192</v>
-      </c>
-      <c r="H46" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="134" t="s">
-        <v>166</v>
-      </c>
-      <c r="J46" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="K46" s="132" t="s">
+      <c r="G47" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="L46" s="29"/>
-      <c r="O46" s="175"/>
-      <c r="P46" s="177"/>
-      <c r="Q46" s="178"/>
-      <c r="R46" s="178"/>
-      <c r="S46" s="178"/>
-      <c r="T46" s="178"/>
-      <c r="U46" s="178"/>
-      <c r="V46" s="178"/>
-      <c r="W46" s="176"/>
-    </row>
-    <row r="47" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="137" t="s">
-        <v>299</v>
-      </c>
-      <c r="F47" s="138">
+      <c r="H47" s="128" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="J47" s="127" t="s">
+        <v>195</v>
+      </c>
+      <c r="K47" s="127" t="s">
+        <v>196</v>
+      </c>
+      <c r="L47" s="29"/>
+      <c r="O47" s="164"/>
+      <c r="P47" s="166"/>
+      <c r="Q47" s="167"/>
+      <c r="R47" s="167"/>
+      <c r="S47" s="167"/>
+      <c r="T47" s="167"/>
+      <c r="U47" s="167"/>
+      <c r="V47" s="167"/>
+      <c r="W47" s="165"/>
+    </row>
+    <row r="48" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E48" s="130" t="s">
+        <v>283</v>
+      </c>
+      <c r="F48" s="131">
         <v>2</v>
       </c>
-      <c r="G47" s="138" t="s">
-        <v>195</v>
-      </c>
-      <c r="H47" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="140" t="s">
-        <v>166</v>
-      </c>
-      <c r="J47" s="138" t="s">
-        <v>196</v>
-      </c>
-      <c r="K47" s="138" t="s">
+      <c r="G48" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="L47" s="29"/>
-      <c r="O47" s="175"/>
-      <c r="P47" s="177"/>
-      <c r="Q47" s="178"/>
-      <c r="R47" s="178"/>
-      <c r="S47" s="178"/>
-      <c r="T47" s="178"/>
-      <c r="U47" s="178"/>
-      <c r="V47" s="178"/>
-      <c r="W47" s="176"/>
-    </row>
-    <row r="48" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E48" s="141" t="s">
-        <v>284</v>
-      </c>
-      <c r="F48" s="142">
-        <v>2</v>
-      </c>
-      <c r="G48" s="142" t="s">
+      <c r="H48" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="133" t="s">
+        <v>165</v>
+      </c>
+      <c r="J48" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="H48" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="144" t="s">
-        <v>166</v>
-      </c>
-      <c r="J48" s="142" t="s">
+      <c r="K48" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="K48" s="142" t="s">
-        <v>200</v>
-      </c>
       <c r="L48" s="29"/>
-      <c r="O48" s="175"/>
-      <c r="P48" s="177"/>
-      <c r="Q48" s="178"/>
-      <c r="R48" s="178"/>
-      <c r="S48" s="178"/>
-      <c r="T48" s="178"/>
-      <c r="U48" s="178"/>
-      <c r="V48" s="178"/>
-      <c r="W48" s="176"/>
+      <c r="O48" s="164"/>
+      <c r="P48" s="166"/>
+      <c r="Q48" s="167"/>
+      <c r="R48" s="167"/>
+      <c r="S48" s="167"/>
+      <c r="T48" s="167"/>
+      <c r="U48" s="167"/>
+      <c r="V48" s="167"/>
+      <c r="W48" s="165"/>
     </row>
     <row r="49" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E49" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F49" s="102">
         <v>2</v>
       </c>
       <c r="G49" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="H49" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="H49" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="108" t="s">
-        <v>166</v>
-      </c>
-      <c r="J49" s="102" t="s">
+      <c r="K49" s="102" t="s">
         <v>202</v>
       </c>
-      <c r="K49" s="102" t="s">
-        <v>203</v>
-      </c>
       <c r="L49" s="29"/>
-      <c r="O49" s="175"/>
-      <c r="P49" s="177"/>
-      <c r="Q49" s="178"/>
-      <c r="R49" s="178"/>
-      <c r="S49" s="178"/>
-      <c r="T49" s="178"/>
-      <c r="U49" s="178"/>
-      <c r="V49" s="178"/>
-      <c r="W49" s="176"/>
+      <c r="O49" s="164"/>
+      <c r="P49" s="166"/>
+      <c r="Q49" s="167"/>
+      <c r="R49" s="167"/>
+      <c r="S49" s="167"/>
+      <c r="T49" s="167"/>
+      <c r="U49" s="167"/>
+      <c r="V49" s="167"/>
+      <c r="W49" s="165"/>
     </row>
     <row r="50" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E50" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F50" s="102">
         <v>2</v>
       </c>
       <c r="G50" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="H50" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" s="102" t="s">
         <v>204</v>
       </c>
-      <c r="H50" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="108" t="s">
-        <v>166</v>
-      </c>
-      <c r="J50" s="102" t="s">
+      <c r="K50" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="K50" s="102" t="s">
+      <c r="L50" s="29"/>
+    </row>
+    <row r="51" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="134" t="s">
+        <v>301</v>
+      </c>
+      <c r="F51" s="135">
+        <v>2</v>
+      </c>
+      <c r="G51" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="L50" s="29"/>
-    </row>
-    <row r="51" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="145" t="s">
-        <v>302</v>
-      </c>
-      <c r="F51" s="146">
+      <c r="H51" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="137" t="s">
+        <v>165</v>
+      </c>
+      <c r="J51" s="135" t="s">
+        <v>207</v>
+      </c>
+      <c r="K51" s="135" t="s">
+        <v>208</v>
+      </c>
+      <c r="L51" s="29"/>
+    </row>
+    <row r="52" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E52" s="138" t="s">
+        <v>282</v>
+      </c>
+      <c r="F52" s="139">
         <v>2</v>
       </c>
-      <c r="G51" s="146" t="s">
-        <v>207</v>
-      </c>
-      <c r="H51" s="147" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="J51" s="146" t="s">
-        <v>208</v>
-      </c>
-      <c r="K51" s="146" t="s">
+      <c r="G52" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="L51" s="29"/>
-    </row>
-    <row r="52" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E52" s="149" t="s">
-        <v>283</v>
-      </c>
-      <c r="F52" s="150">
-        <v>2</v>
-      </c>
-      <c r="G52" s="150" t="s">
+      <c r="H52" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="J52" s="139" t="s">
         <v>210</v>
       </c>
-      <c r="H52" s="151" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="152" t="s">
-        <v>166</v>
-      </c>
-      <c r="J52" s="150" t="s">
+      <c r="K52" s="139" t="s">
         <v>211</v>
-      </c>
-      <c r="K52" s="150" t="s">
-        <v>212</v>
       </c>
       <c r="L52" s="29"/>
     </row>
     <row r="53" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E53" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F53" s="101">
         <v>2</v>
       </c>
       <c r="G53" s="101" t="s">
+        <v>212</v>
+      </c>
+      <c r="H53" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="J53" s="101" t="s">
         <v>213</v>
       </c>
-      <c r="H53" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="J53" s="101" t="s">
+      <c r="K53" s="101" t="s">
         <v>214</v>
-      </c>
-      <c r="K53" s="101" t="s">
-        <v>215</v>
       </c>
       <c r="L53" s="29"/>
     </row>
     <row r="54" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E54" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F54" s="101">
         <v>2</v>
       </c>
       <c r="G54" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="H54" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="J54" s="101" t="s">
         <v>216</v>
       </c>
-      <c r="H54" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="J54" s="101" t="s">
+      <c r="K54" s="101" t="s">
         <v>217</v>
-      </c>
-      <c r="K54" s="101" t="s">
-        <v>218</v>
       </c>
       <c r="L54" s="29"/>
     </row>
     <row r="55" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E55" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F55" s="101">
         <v>2</v>
       </c>
       <c r="G55" s="101" t="s">
+        <v>218</v>
+      </c>
+      <c r="H55" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="J55" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="H55" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="J55" s="101" t="s">
+      <c r="K55" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="K55" s="101" t="s">
+      <c r="L55" s="29"/>
+    </row>
+    <row r="56" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="142" t="s">
+        <v>302</v>
+      </c>
+      <c r="F56" s="143">
+        <v>2</v>
+      </c>
+      <c r="G56" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="L55" s="29"/>
-    </row>
-    <row r="56" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="153" t="s">
-        <v>303</v>
-      </c>
-      <c r="F56" s="154">
+      <c r="H56" s="144" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="J56" s="143" t="s">
+        <v>222</v>
+      </c>
+      <c r="K56" s="143" t="s">
+        <v>223</v>
+      </c>
+      <c r="L56" s="29"/>
+    </row>
+    <row r="57" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E57" s="146" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57" s="147">
         <v>2</v>
       </c>
-      <c r="G56" s="154" t="s">
-        <v>222</v>
-      </c>
-      <c r="H56" s="155" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="156" t="s">
-        <v>166</v>
-      </c>
-      <c r="J56" s="154" t="s">
-        <v>223</v>
-      </c>
-      <c r="K56" s="154" t="s">
+      <c r="G57" s="147" t="s">
         <v>224</v>
       </c>
-      <c r="L56" s="29"/>
-    </row>
-    <row r="57" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E57" s="157" t="s">
-        <v>282</v>
-      </c>
-      <c r="F57" s="158">
-        <v>2</v>
-      </c>
-      <c r="G57" s="158" t="s">
+      <c r="H57" s="148" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="J57" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="H57" s="159" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="160" t="s">
-        <v>166</v>
-      </c>
-      <c r="J57" s="158" t="s">
+      <c r="K57" s="147" t="s">
         <v>226</v>
-      </c>
-      <c r="K57" s="158" t="s">
-        <v>227</v>
       </c>
       <c r="L57" s="29"/>
     </row>
     <row r="58" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E58" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F58" s="100">
         <v>2</v>
       </c>
       <c r="G58" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="H58" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="J58" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="H58" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="J58" s="100" t="s">
+      <c r="K58" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="K58" s="100" t="s">
+      <c r="L58" s="29"/>
+    </row>
+    <row r="59" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F59" s="151">
+        <v>2</v>
+      </c>
+      <c r="G59" s="151" t="s">
         <v>230</v>
       </c>
-      <c r="L58" s="29"/>
-    </row>
-    <row r="59" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="161" t="s">
-        <v>293</v>
-      </c>
-      <c r="F59" s="162">
+      <c r="H59" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="J59" s="151" t="s">
+        <v>231</v>
+      </c>
+      <c r="K59" s="151" t="s">
+        <v>232</v>
+      </c>
+      <c r="L59" s="29"/>
+    </row>
+    <row r="60" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E60" s="154" t="s">
+        <v>280</v>
+      </c>
+      <c r="F60" s="155">
         <v>2</v>
       </c>
-      <c r="G59" s="162" t="s">
-        <v>231</v>
-      </c>
-      <c r="H59" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="J59" s="162" t="s">
-        <v>232</v>
-      </c>
-      <c r="K59" s="162" t="s">
+      <c r="G60" s="155" t="s">
         <v>233</v>
       </c>
-      <c r="L59" s="29"/>
-    </row>
-    <row r="60" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E60" s="165" t="s">
-        <v>281</v>
-      </c>
-      <c r="F60" s="166">
-        <v>2</v>
-      </c>
-      <c r="G60" s="166" t="s">
+      <c r="H60" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="J60" s="155" t="s">
         <v>234</v>
       </c>
-      <c r="H60" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="J60" s="166" t="s">
+      <c r="K60" s="155" t="s">
         <v>235</v>
-      </c>
-      <c r="K60" s="166" t="s">
-        <v>236</v>
       </c>
       <c r="L60" s="29"/>
     </row>
     <row r="61" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E61" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F61" s="99">
         <v>2</v>
       </c>
       <c r="G61" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="H61" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="J61" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="H61" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="105" t="s">
-        <v>166</v>
-      </c>
-      <c r="J61" s="99" t="s">
+      <c r="K61" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="K61" s="99" t="s">
+      <c r="L61" s="29"/>
+    </row>
+    <row r="62" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="158" t="s">
+        <v>291</v>
+      </c>
+      <c r="F62" s="159">
+        <v>2</v>
+      </c>
+      <c r="G62" s="159" t="s">
         <v>239</v>
       </c>
-      <c r="L61" s="29"/>
-    </row>
-    <row r="62" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="169" t="s">
-        <v>292</v>
-      </c>
-      <c r="F62" s="170">
-        <v>2</v>
-      </c>
-      <c r="G62" s="170" t="s">
+      <c r="H62" s="160" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="161" t="s">
+        <v>165</v>
+      </c>
+      <c r="J62" s="159" t="s">
         <v>240</v>
       </c>
-      <c r="H62" s="171" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="172" t="s">
-        <v>166</v>
-      </c>
-      <c r="J62" s="170" t="s">
+      <c r="K62" s="159" t="s">
         <v>241</v>
-      </c>
-      <c r="K62" s="170" t="s">
-        <v>242</v>
       </c>
       <c r="L62" s="29"/>
     </row>
     <row r="63" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E63" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F63" s="97">
         <v>2</v>
       </c>
       <c r="G63" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="H63" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="163" t="s">
+        <v>165</v>
+      </c>
+      <c r="J63" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="H63" s="173" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="174" t="s">
-        <v>166</v>
-      </c>
-      <c r="J63" s="97" t="s">
+      <c r="K63" s="97" t="s">
         <v>244</v>
-      </c>
-      <c r="K63" s="97" t="s">
-        <v>245</v>
       </c>
       <c r="L63" s="29"/>
     </row>
     <row r="64" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E64" s="96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F64" s="98">
         <v>2</v>
       </c>
       <c r="G64" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="H64" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="J64" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="H64" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J64" s="98" t="s">
+      <c r="K64" s="98" t="s">
         <v>247</v>
-      </c>
-      <c r="K64" s="98" t="s">
-        <v>248</v>
       </c>
       <c r="L64" s="29"/>
     </row>
     <row r="65" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E65" s="96" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F65" s="98">
         <v>2</v>
       </c>
       <c r="G65" s="98" t="s">
+        <v>248</v>
+      </c>
+      <c r="H65" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="J65" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="H65" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J65" s="98" t="s">
+      <c r="K65" s="98" t="s">
         <v>250</v>
-      </c>
-      <c r="K65" s="98" t="s">
-        <v>251</v>
       </c>
       <c r="L65" s="29"/>
     </row>
     <row r="66" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E66" s="96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F66" s="98">
         <v>2</v>
       </c>
       <c r="G66" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="H66" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="J66" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="H66" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J66" s="98" t="s">
+      <c r="K66" s="98" t="s">
         <v>253</v>
-      </c>
-      <c r="K66" s="98" t="s">
-        <v>254</v>
       </c>
       <c r="L66" s="29"/>
     </row>
     <row r="67" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E67" s="96" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F67" s="98">
         <v>2</v>
       </c>
       <c r="G67" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="H67" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="J67" s="98" t="s">
         <v>255</v>
       </c>
-      <c r="H67" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J67" s="98" t="s">
+      <c r="K67" s="98" t="s">
         <v>256</v>
-      </c>
-      <c r="K67" s="98" t="s">
-        <v>257</v>
       </c>
       <c r="L67" s="29"/>
     </row>
     <row r="68" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E68" s="96" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F68" s="98">
         <v>2</v>
       </c>
       <c r="G68" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="H68" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="J68" s="98" t="s">
         <v>258</v>
       </c>
-      <c r="H68" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J68" s="98" t="s">
+      <c r="K68" s="98" t="s">
         <v>259</v>
-      </c>
-      <c r="K68" s="98" t="s">
-        <v>260</v>
       </c>
       <c r="L68" s="29"/>
     </row>
     <row r="69" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E69" s="96" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F69" s="98">
         <v>2</v>
       </c>
       <c r="G69" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="H69" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="J69" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="H69" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J69" s="98" t="s">
+      <c r="K69" s="98" t="s">
         <v>262</v>
-      </c>
-      <c r="K69" s="98" t="s">
-        <v>263</v>
       </c>
       <c r="L69" s="29"/>
     </row>
     <row r="70" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E70" s="96" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F70" s="98">
         <v>2</v>
       </c>
       <c r="G70" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="H70" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="J70" s="98" t="s">
         <v>264</v>
       </c>
-      <c r="H70" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J70" s="98" t="s">
+      <c r="K70" s="98" t="s">
         <v>265</v>
-      </c>
-      <c r="K70" s="98" t="s">
-        <v>266</v>
       </c>
       <c r="L70" s="29"/>
     </row>
     <row r="71" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E71" s="96" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F71" s="98">
         <v>2</v>
       </c>
       <c r="G71" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="H71" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="J71" s="98" t="s">
         <v>267</v>
       </c>
-      <c r="H71" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J71" s="98" t="s">
+      <c r="K71" s="98" t="s">
         <v>268</v>
-      </c>
-      <c r="K71" s="98" t="s">
-        <v>269</v>
       </c>
       <c r="L71" s="29"/>
     </row>
     <row r="72" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E72" s="96" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F72" s="98">
         <v>2</v>
       </c>
       <c r="G72" s="98" t="s">
+        <v>269</v>
+      </c>
+      <c r="H72" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="J72" s="98" t="s">
         <v>270</v>
       </c>
-      <c r="H72" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J72" s="98" t="s">
+      <c r="K72" s="98" t="s">
         <v>271</v>
-      </c>
-      <c r="K72" s="98" t="s">
-        <v>272</v>
       </c>
       <c r="L72" s="29"/>
     </row>
     <row r="73" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E73" s="89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F73" s="48">
         <v>2</v>
       </c>
       <c r="G73" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="H73" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="J73" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="H73" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" s="103" t="s">
-        <v>166</v>
-      </c>
-      <c r="J73" s="48" t="s">
+      <c r="K73" s="48" t="s">
         <v>274</v>
-      </c>
-      <c r="K73" s="48" t="s">
-        <v>275</v>
       </c>
       <c r="L73" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N19:R19"/>
     <mergeCell ref="N21:R21"/>
     <mergeCell ref="N23:R23"/>
     <mergeCell ref="N25:R25"/>
@@ -4423,6 +4418,11 @@
     <mergeCell ref="N22:R22"/>
     <mergeCell ref="N24:R24"/>
     <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="N19:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
